--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -139,13 +139,13 @@
     <t xml:space="preserve">Stworzenie podstawowego szablonu REST API</t>
   </si>
   <si>
-    <t xml:space="preserve">Dodanie endpointów do wywoływania transformacji</t>
+    <t xml:space="preserve">Dodanie endpointa do wywoływania transformacji</t>
   </si>
   <si>
     <t xml:space="preserve">Obsługa wejścia i wyjścia w formacie JSON</t>
   </si>
   <si>
-    <t xml:space="preserve">Integracja z innymi aplikacjami</t>
+    <t xml:space="preserve">uruchomienie dowolnej aktualnie zaimplementowanej transformacji oraz sekwencji transformacji</t>
   </si>
   <si>
     <t xml:space="preserve">Łącznie</t>
@@ -239,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -285,6 +285,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,6 +381,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -501,7 +511,7 @@
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
   </cols>
@@ -535,10 +545,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15"/>
@@ -564,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -738,11 +748,11 @@
   </sheetPr>
   <dimension ref="A2:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="48.83"/>
@@ -804,9 +814,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="8" t="n">

--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Documents\Studia\Semestr 5\Inżynieria oprogramowania\TextTransformer\Text_Transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39D610-8BE8-40D1-A8B0-53C268A58849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419D083-5D12-4D23-9A4B-94FF90DE6E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -241,12 +241,33 @@
   <si>
     <t>Testowanie poprawności działania dla wszystkich znaków UTF-8</t>
   </si>
+  <si>
+    <t>Konfiguracja Githuba</t>
+  </si>
+  <si>
+    <t>Stworzenie githuba</t>
+  </si>
+  <si>
+    <t>Zaprosić członków zespołu</t>
+  </si>
+  <si>
+    <t>Stworzenie readme</t>
+  </si>
+  <si>
+    <t>Zaimplementowanie Github Actions</t>
+  </si>
+  <si>
+    <t>Stworzenie Issues</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -281,6 +302,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -329,14 +358,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -437,8 +473,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C42" totalsRowShown="0">
-  <autoFilter ref="A4:C42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C31" totalsRowShown="0">
+  <autoFilter ref="A4:C31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania"/>
@@ -796,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -990,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C46"/>
+  <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1019,165 +1055,260 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15"/>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="A16"/>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17"/>
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19"/>
-      <c r="B19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2</v>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="10">
-        <v>10</v>
+      <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A21"/>
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23"/>
-      <c r="B23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24"/>
-      <c r="B24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>38</v>
-      </c>
+    <row r="25" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25"/>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C25" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>41</v>
+    <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C29" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>44</v>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -1186,145 +1317,86 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32" s="8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C32" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C33" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-      <c r="B36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0.5</v>
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0.5</v>
+      <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-      <c r="B40" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="B41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="B43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-      <c r="B44" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-      <c r="B45" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="C40" s="13">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Documents\Studia\Semestr 5\Inżynieria oprogramowania\TextTransformer\Text_Transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419D083-5D12-4D23-9A4B-94FF90DE6E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C4F30-B64C-4E16-8926-920BEBC196AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C40"/>
+  <dimension ref="A2:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1392,6 +1395,16 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Documents\Studia\Semestr 5\Inżynieria oprogramowania\TextTransformer\Text_Transformer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzyś\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C4F30-B64C-4E16-8926-920BEBC196AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F92E33-832F-4980-B19E-1B226BE44B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="1" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint Backlog #1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint Backlog #2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -265,12 +266,36 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Stworzenie GUI</t>
+  </si>
+  <si>
+    <t>Stworzenie prototypu okna edycji</t>
+  </si>
+  <si>
+    <t>Zaprojektowanie GUI</t>
+  </si>
+  <si>
+    <t>Stworzenie prototypu okna wynku</t>
+  </si>
+  <si>
+    <t>Zaimplementowanie projektu i prototypów</t>
+  </si>
+  <si>
+    <t>Testy jednostkowe</t>
+  </si>
+  <si>
+    <t>Stworzono przynajmniej 20 metod testujących</t>
+  </si>
+  <si>
+    <t>Storzono przynajmniej 10 metod z użyciem Mockito</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -283,13 +308,15 @@
       <sz val="18"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -308,6 +335,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -334,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -376,6 +411,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -810,17 +853,17 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -835,20 +878,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -865,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -882,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -899,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -916,7 +959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -933,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -950,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -967,7 +1010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -984,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1001,21 +1044,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <f>SUM(C2:C10)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1031,23 +1080,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="8" t="s">
         <v>30</v>
@@ -1078,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -1087,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -1096,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="9" t="s">
         <v>33</v>
@@ -1105,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1116,7 +1165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="8" t="s">
         <v>36</v>
@@ -1125,7 +1174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="8" t="s">
         <v>37</v>
@@ -1134,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="9" t="s">
         <v>33</v>
@@ -1143,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1154,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="8" t="s">
         <v>40</v>
@@ -1163,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
@@ -1172,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -1183,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="8" t="s">
         <v>43</v>
@@ -1192,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="9" t="s">
         <v>33</v>
@@ -1201,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="8" t="s">
         <v>46</v>
@@ -1221,7 +1270,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="8" t="s">
         <v>47</v>
@@ -1230,7 +1279,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="9" t="s">
         <v>33</v>
@@ -1239,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
@@ -1259,7 +1308,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="8" t="s">
         <v>51</v>
@@ -1268,7 +1317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" s="9" t="s">
         <v>33</v>
@@ -1277,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
@@ -1288,7 +1337,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="8" t="s">
         <v>54</v>
@@ -1297,7 +1346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="9" t="s">
         <v>33</v>
@@ -1306,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1317,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" s="8" t="s">
         <v>57</v>
@@ -1326,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="8" t="s">
         <v>58</v>
@@ -1335,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="9" t="s">
         <v>33</v>
@@ -1344,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>59</v>
       </c>
@@ -1355,7 +1404,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
@@ -1363,7 +1412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
@@ -1371,7 +1420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>62</v>
       </c>
@@ -1379,7 +1428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>63</v>
       </c>
@@ -1387,7 +1436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>33</v>
       </c>
@@ -1395,12 +1444,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>66</v>
       </c>
@@ -1412,4 +1461,105 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F0204D-81C3-4FE5-8656-6D0D0D9CF147}">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzyś\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Documents\Studia\Semestr 5\Inżynieria oprogramowania\TextTransformer\Text_Transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F92E33-832F-4980-B19E-1B226BE44B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655895CA-3A01-49DD-8F4F-B9866FBB2239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>0.5</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Stworzenie GUI</t>
@@ -369,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -411,8 +408,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -853,17 +848,17 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -882,16 +877,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.58203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.08203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -908,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -925,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -942,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -959,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -976,7 +971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -993,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1027,7 +1022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <f>SUM(C2:C10)</f>
         <v>33</v>
@@ -1078,25 +1073,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C45"/>
+  <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="8" t="s">
         <v>30</v>
@@ -1127,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -1136,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -1145,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="9" t="s">
         <v>33</v>
@@ -1154,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="8" t="s">
         <v>36</v>
@@ -1174,7 +1169,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="8" t="s">
         <v>37</v>
@@ -1183,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="9" t="s">
         <v>33</v>
@@ -1192,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="8" t="s">
         <v>40</v>
@@ -1212,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
@@ -1221,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="8" t="s">
         <v>43</v>
@@ -1241,7 +1236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="9" t="s">
         <v>33</v>
@@ -1250,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -1261,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="8" t="s">
         <v>46</v>
@@ -1270,7 +1265,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="8" t="s">
         <v>47</v>
@@ -1279,7 +1274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="9" t="s">
         <v>33</v>
@@ -1288,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -1299,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
@@ -1308,7 +1303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26" s="8" t="s">
         <v>51</v>
@@ -1317,7 +1312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27" s="9" t="s">
         <v>33</v>
@@ -1326,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29" s="8" t="s">
         <v>54</v>
@@ -1346,7 +1341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30" s="9" t="s">
         <v>33</v>
@@ -1355,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32" s="8" t="s">
         <v>57</v>
@@ -1375,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33" s="8" t="s">
         <v>58</v>
@@ -1384,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34" s="9" t="s">
         <v>33</v>
@@ -1393,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>59</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
@@ -1412,7 +1407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
@@ -1420,7 +1415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>62</v>
       </c>
@@ -1428,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>63</v>
       </c>
@@ -1436,22 +1431,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="13">
         <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1467,95 +1452,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F0204D-81C3-4FE5-8656-6D0D0D9CF147}">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="19" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="C5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>3</v>
       </c>
     </row>

--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Documents\Studia\Semestr 5\Inżynieria oprogramowania\TextTransformer\Text_Transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655895CA-3A01-49DD-8F4F-B9866FBB2239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0283BBC-B95F-4AF3-AE85-640A289EFDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>Storzono przynajmniej 10 metod z użyciem Mockito</t>
+  </si>
+  <si>
+    <t>Akcje naprawcze</t>
+  </si>
+  <si>
+    <t>Zaznajomienie się z tworzeniem GUI</t>
+  </si>
+  <si>
+    <t>Organizacja czasu w taki sposób, aby spotkać się na umówione wcześniej spotkanie grupowe.</t>
+  </si>
+  <si>
+    <t>Lepsze zaznajomienie się z Github Workflows</t>
   </si>
 </sst>
 </file>
@@ -366,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -413,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C40"/>
+  <dimension ref="A2:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1437,6 +1452,41 @@
       </c>
       <c r="C40" s="13">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Documents\Studia\Semestr 5\Inżynieria oprogramowania\TextTransformer\Text_Transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0283BBC-B95F-4AF3-AE85-640A289EFDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6A80F-DB64-42F9-9CF8-C06862D8826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Lepsze zaznajomienie się z Github Workflows</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1455,39 +1461,18 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="B42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A41" s="17"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="13">
-        <v>1.5</v>
-      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1500,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F0204D-81C3-4FE5-8656-6D0D0D9CF147}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1594,6 +1579,44 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
